--- a/contraction_list.xlsx
+++ b/contraction_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinath/Documents/GitHub/cuda_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC94BB1-A082-0942-B87D-FDBA32F8ADBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A0645C-49D1-E842-BFDF-C9686A904EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
+    <workbookView xWindow="4080" yWindow="1600" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,15 +59,9 @@
     <t>label</t>
   </si>
   <si>
-    <t>ab * bcd -&gt; acd</t>
-  </si>
-  <si>
     <t>float32</t>
   </si>
   <si>
-    <t>ab * bcd -&gt; acd-fp32</t>
-  </si>
-  <si>
     <t>(4096, 768)</t>
   </si>
   <si>
@@ -78,6 +72,12 @@
   </si>
   <si>
     <t>([1],[1])</t>
+  </si>
+  <si>
+    <t>ab * cb -&gt; ac</t>
+  </si>
+  <si>
+    <t>ab * cb -&gt; ac-fp32</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,25 +466,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/contraction_list.xlsx
+++ b/contraction_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinath/Documents/GitHub/cuda_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A0645C-49D1-E842-BFDF-C9686A904EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C212F6C-B9A6-AA42-81BA-1513D06A3602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1600" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
+    <workbookView xWindow="5700" yWindow="10460" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>adim</t>
   </si>
@@ -59,9 +59,15 @@
     <t>label</t>
   </si>
   <si>
+    <t>ab * bcd -&gt; acd</t>
+  </si>
+  <si>
     <t>float32</t>
   </si>
   <si>
+    <t>ab * bcd -&gt; acd-fp32</t>
+  </si>
+  <si>
     <t>(4096, 768)</t>
   </si>
   <si>
@@ -78,6 +84,30 @@
   </si>
   <si>
     <t>ab * cb -&gt; ac-fp32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 20) </t>
+  </si>
+  <si>
+    <t>(20, 8, 20)</t>
+  </si>
+  <si>
+    <t>(12, 8, 20)</t>
+  </si>
+  <si>
+    <t>([-1],[0])</t>
+  </si>
+  <si>
+    <t>floa16</t>
+  </si>
+  <si>
+    <t>ab * cb -&gt; ac-fp16</t>
+  </si>
+  <si>
+    <t>ab * bcd -&gt; acd-fp16</t>
+  </si>
+  <si>
+    <t>float16</t>
   </si>
 </sst>
 </file>
@@ -429,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533FA1DA-7CC0-DB47-8E54-9F4B65E35022}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,25 +496,94 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/contraction_list.xlsx
+++ b/contraction_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinath/Documents/GitHub/cuda_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C212F6C-B9A6-AA42-81BA-1513D06A3602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CAD1D3-2B87-6A49-9F00-0B62178394B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="10460" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
+    <workbookView xWindow="1860" yWindow="8020" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>adim</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>([-1],[0])</t>
-  </si>
-  <si>
-    <t>floa16</t>
   </si>
   <si>
     <t>ab * cb -&gt; ac-fp16</t>
@@ -462,7 +459,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,10 +531,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -580,10 +577,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/contraction_list.xlsx
+++ b/contraction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinath/Documents/GitHub/cuda_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CAD1D3-2B87-6A49-9F00-0B62178394B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AB0163-6B1D-414C-82DE-D808D783FCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="8020" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>adim</t>
   </si>
@@ -59,15 +59,9 @@
     <t>label</t>
   </si>
   <si>
-    <t>ab * bcd -&gt; acd</t>
-  </si>
-  <si>
     <t>float32</t>
   </si>
   <si>
-    <t>ab * bcd -&gt; acd-fp32</t>
-  </si>
-  <si>
     <t>(4096, 768)</t>
   </si>
   <si>
@@ -84,27 +78,6 @@
   </si>
   <si>
     <t>ab * cb -&gt; ac-fp32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 20) </t>
-  </si>
-  <si>
-    <t>(20, 8, 20)</t>
-  </si>
-  <si>
-    <t>(12, 8, 20)</t>
-  </si>
-  <si>
-    <t>([-1],[0])</t>
-  </si>
-  <si>
-    <t>ab * cb -&gt; ac-fp16</t>
-  </si>
-  <si>
-    <t>ab * bcd -&gt; acd-fp16</t>
-  </si>
-  <si>
-    <t>float16</t>
   </si>
 </sst>
 </file>
@@ -456,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533FA1DA-7CC0-DB47-8E54-9F4B65E35022}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,97 +466,29 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/contraction_list.xlsx
+++ b/contraction_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinath/Documents/GitHub/cuda_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C212F6C-B9A6-AA42-81BA-1513D06A3602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84B59A5-2A74-0D4D-A38B-7A09AB516E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="10460" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
+    <workbookView xWindow="3060" yWindow="6420" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>adim</t>
   </si>
@@ -59,55 +59,25 @@
     <t>label</t>
   </si>
   <si>
-    <t>ab * bcd -&gt; acd</t>
-  </si>
-  <si>
     <t>float32</t>
   </si>
   <si>
-    <t>ab * bcd -&gt; acd-fp32</t>
-  </si>
-  <si>
-    <t>(4096, 768)</t>
-  </si>
-  <si>
-    <t>(20, 768)</t>
-  </si>
-  <si>
-    <t>(4096, 20)</t>
-  </si>
-  <si>
-    <t>([1],[1])</t>
-  </si>
-  <si>
-    <t>ab * cb -&gt; ac</t>
-  </si>
-  <si>
-    <t>ab * cb -&gt; ac-fp32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 20) </t>
-  </si>
-  <si>
     <t>(20, 8, 20)</t>
   </si>
   <si>
     <t>(12, 8, 20)</t>
   </si>
   <si>
-    <t>([-1],[0])</t>
-  </si>
-  <si>
-    <t>floa16</t>
-  </si>
-  <si>
-    <t>ab * cb -&gt; ac-fp16</t>
-  </si>
-  <si>
-    <t>ab * bcd -&gt; acd-fp16</t>
-  </si>
-  <si>
-    <t>float16</t>
+    <t>(12, 8, 8, 20)</t>
+  </si>
+  <si>
+    <t>([-1], [0])</t>
+  </si>
+  <si>
+    <t>abc * cde -&gt; abde</t>
+  </si>
+  <si>
+    <t>abc * cde -&gt; abde-fp32</t>
   </si>
 </sst>
 </file>
@@ -459,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533FA1DA-7CC0-DB47-8E54-9F4B65E35022}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,97 +466,29 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/contraction_list.xlsx
+++ b/contraction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinath/Documents/GitHub/cuda_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84B59A5-2A74-0D4D-A38B-7A09AB516E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EC7258-6CFF-4949-BD62-C4BE98C3DC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="6420" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>adim</t>
   </si>
@@ -59,38 +59,68 @@
     <t>label</t>
   </si>
   <si>
+    <t>ab * bcd -&gt; acd</t>
+  </si>
+  <si>
     <t>float32</t>
   </si>
   <si>
+    <t>ab * bcd -&gt; acd-fp32</t>
+  </si>
+  <si>
+    <t>(4096, 768)</t>
+  </si>
+  <si>
+    <t>(20, 768)</t>
+  </si>
+  <si>
+    <t>(4096, 20)</t>
+  </si>
+  <si>
+    <t>([1],[1])</t>
+  </si>
+  <si>
+    <t>ab * cb -&gt; ac</t>
+  </si>
+  <si>
     <t>(20, 8, 20)</t>
   </si>
   <si>
     <t>(12, 8, 20)</t>
   </si>
   <si>
-    <t>(12, 8, 8, 20)</t>
-  </si>
-  <si>
-    <t>([-1], [0])</t>
-  </si>
-  <si>
-    <t>abc * cde -&gt; abde</t>
-  </si>
-  <si>
-    <t>abc * cde -&gt; abde-fp32</t>
+    <t>([-1],[0])</t>
+  </si>
+  <si>
+    <t>ab * cb -&gt; ac-fp16</t>
+  </si>
+  <si>
+    <t>ab * bcd -&gt; acd-fp16</t>
+  </si>
+  <si>
+    <t>float16</t>
+  </si>
+  <si>
+    <t>(12, 20)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,8 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533FA1DA-7CC0-DB47-8E54-9F4B65E35022}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,26 +496,72 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/contraction_list.xlsx
+++ b/contraction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinath/Documents/GitHub/cuda_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EC7258-6CFF-4949-BD62-C4BE98C3DC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CB0FB3-BD41-A342-82D8-3EE84C915348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="6420" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>adim</t>
   </si>
@@ -83,6 +83,9 @@
     <t>ab * cb -&gt; ac</t>
   </si>
   <si>
+    <t>ab * cb -&gt; ac-fp32</t>
+  </si>
+  <si>
     <t>(20, 8, 20)</t>
   </si>
   <si>
@@ -101,14 +104,47 @@
     <t>float16</t>
   </si>
   <si>
+    <t>(12, 8, 8, 20)</t>
+  </si>
+  <si>
+    <t>([-1], [0])</t>
+  </si>
+  <si>
+    <t>abc * cde -&gt; abde</t>
+  </si>
+  <si>
+    <t>abc * cde -&gt; abde-fp32</t>
+  </si>
+  <si>
     <t>(12, 20)</t>
+  </si>
+  <si>
+    <t>abc * cde -&gt; abde-fp16</t>
+  </si>
+  <si>
+    <t>(20, 16, 20)</t>
+  </si>
+  <si>
+    <t>(16, 20)</t>
+  </si>
+  <si>
+    <t>(16, 16, 20)</t>
+  </si>
+  <si>
+    <t>ab * bde -&gt; abde</t>
+  </si>
+  <si>
+    <t>ab * bde -&gt; abde-fp32</t>
+  </si>
+  <si>
+    <t>ab * bde -&gt; abde-fp16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,10 +153,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,9 +191,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533FA1DA-7CC0-DB47-8E54-9F4B65E35022}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,75 +545,194 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/contraction_list.xlsx
+++ b/contraction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinath/Documents/GitHub/cuda_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CB0FB3-BD41-A342-82D8-3EE84C915348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C520C9-139E-2E4E-8FB2-42E314DCCB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="6420" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>(4096, 20)</t>
   </si>
   <si>
-    <t>([1],[1])</t>
-  </si>
-  <si>
     <t>ab * cb -&gt; ac</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>ab * bde -&gt; abde-fp16</t>
+  </si>
+  <si>
+    <t>([1], [1])</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,16 +555,16 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -578,30 +578,30 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -615,117 +615,117 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">

--- a/contraction_list.xlsx
+++ b/contraction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinath/Documents/GitHub/cuda_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C520C9-139E-2E4E-8FB2-42E314DCCB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75DD82F-5C03-2F46-AAED-04C48864290D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="6420" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>adim</t>
   </si>
@@ -68,21 +68,6 @@
     <t>ab * bcd -&gt; acd-fp32</t>
   </si>
   <si>
-    <t>(4096, 768)</t>
-  </si>
-  <si>
-    <t>(20, 768)</t>
-  </si>
-  <si>
-    <t>(4096, 20)</t>
-  </si>
-  <si>
-    <t>ab * cb -&gt; ac</t>
-  </si>
-  <si>
-    <t>ab * cb -&gt; ac-fp32</t>
-  </si>
-  <si>
     <t>(20, 8, 20)</t>
   </si>
   <si>
@@ -92,9 +77,6 @@
     <t>([-1],[0])</t>
   </si>
   <si>
-    <t>ab * cb -&gt; ac-fp16</t>
-  </si>
-  <si>
     <t>ab * bcd -&gt; acd-fp16</t>
   </si>
   <si>
@@ -135,9 +117,6 @@
   </si>
   <si>
     <t>ab * bde -&gt; abde-fp16</t>
-  </si>
-  <si>
-    <t>([1], [1])</t>
   </si>
 </sst>
 </file>
@@ -509,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533FA1DA-7CC0-DB47-8E54-9F4B65E35022}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,190 +525,144 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/contraction_list.xlsx
+++ b/contraction_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinath/Documents/GitHub/cuda_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75DD82F-5C03-2F46-AAED-04C48864290D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A622F3-BB2A-9E4C-889F-516734A1FB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="6420" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,13 +110,13 @@
     <t>(16, 16, 20)</t>
   </si>
   <si>
-    <t>ab * bde -&gt; abde</t>
-  </si>
-  <si>
     <t>ab * bde -&gt; abde-fp32</t>
   </si>
   <si>
     <t>ab * bde -&gt; abde-fp16</t>
+  </si>
+  <si>
+    <t>ab * bde -&gt; ade</t>
   </si>
 </sst>
 </file>
@@ -491,12 +491,12 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
     <col min="7" max="7" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -629,13 +629,13 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -652,13 +652,13 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">

--- a/contraction_list.xlsx
+++ b/contraction_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinath/Documents/GitHub/cuda_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A622F3-BB2A-9E4C-889F-516734A1FB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069B02CF-2C39-0A45-95B0-308753E28348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
+    <workbookView xWindow="2880" yWindow="4580" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/contraction_list.xlsx
+++ b/contraction_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinath/Documents/GitHub/cuda_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069B02CF-2C39-0A45-95B0-308753E28348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE739BDC-B1F3-B647-A228-E901E65A21F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="4580" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
+    <workbookView xWindow="37260" yWindow="4480" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
   <si>
     <t>adim</t>
   </si>
@@ -68,6 +68,21 @@
     <t>ab * bcd -&gt; acd-fp32</t>
   </si>
   <si>
+    <t>(4096, 768)</t>
+  </si>
+  <si>
+    <t>(20, 768)</t>
+  </si>
+  <si>
+    <t>(4096, 20)</t>
+  </si>
+  <si>
+    <t>ab * cb -&gt; ac</t>
+  </si>
+  <si>
+    <t>ab * cb -&gt; ac-fp32</t>
+  </si>
+  <si>
     <t>(20, 8, 20)</t>
   </si>
   <si>
@@ -77,6 +92,9 @@
     <t>([-1],[0])</t>
   </si>
   <si>
+    <t>ab * cb -&gt; ac-fp16</t>
+  </si>
+  <si>
     <t>ab * bcd -&gt; acd-fp16</t>
   </si>
   <si>
@@ -116,7 +134,40 @@
     <t>ab * bde -&gt; abde-fp16</t>
   </si>
   <si>
+    <t>([1], [1])</t>
+  </si>
+  <si>
     <t>ab * bde -&gt; ade</t>
+  </si>
+  <si>
+    <t>(20, 12, 20)</t>
+  </si>
+  <si>
+    <t>(16, 16, 12, 20)</t>
+  </si>
+  <si>
+    <t>(32, 20)</t>
+  </si>
+  <si>
+    <t>(20, 8, 8, 12)</t>
+  </si>
+  <si>
+    <t>(32, 8, 8, 12)</t>
+  </si>
+  <si>
+    <t>ab * bcde -&gt; acde</t>
+  </si>
+  <si>
+    <t>ab * bcde -&gt; acde-fp32</t>
+  </si>
+  <si>
+    <t>ab * bcde -&gt; acde-fp16</t>
+  </si>
+  <si>
+    <t>(20, 12, 16, 16)</t>
+  </si>
+  <si>
+    <t>(4096, 12, 16, 16)</t>
   </si>
 </sst>
 </file>
@@ -488,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533FA1DA-7CC0-DB47-8E54-9F4B65E35022}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,16 +576,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -548,121 +599,302 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/contraction_list.xlsx
+++ b/contraction_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinath/Documents/GitHub/cuda_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE739BDC-B1F3-B647-A228-E901E65A21F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3C66A5-6DB3-374E-88E2-EC216CA262B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37260" yWindow="4480" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
+    <workbookView xWindow="38400" yWindow="10300" windowWidth="30240" windowHeight="18880" xr2:uid="{E3220547-C2A3-8B4E-97D6-08DE130750E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
   <si>
     <t>adim</t>
   </si>
@@ -168,13 +168,46 @@
   </si>
   <si>
     <t>(4096, 12, 16, 16)</t>
+  </si>
+  <si>
+    <t>(20, 8, 8, 20)</t>
+  </si>
+  <si>
+    <t>abcd * ecd -&gt; abe</t>
+  </si>
+  <si>
+    <t>([2,3], [1,2])</t>
+  </si>
+  <si>
+    <t>abcd * ecd -&gt; abe-fp32</t>
+  </si>
+  <si>
+    <t>abcd * ecd -&gt; abe-fp16</t>
+  </si>
+  <si>
+    <t>(12, 64, 20)</t>
+  </si>
+  <si>
+    <t>(20, 64, 20)</t>
+  </si>
+  <si>
+    <t>abc * ebc -&gt; ae</t>
+  </si>
+  <si>
+    <t>([1,2], [1,2])</t>
+  </si>
+  <si>
+    <t>abc * ebc -&gt; ae-fp32</t>
+  </si>
+  <si>
+    <t>abc * ebc -&gt; ae-fp16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +233,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -221,10 +260,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,9 +283,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +323,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -389,7 +429,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533FA1DA-7CC0-DB47-8E54-9F4B65E35022}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -896,6 +936,98 @@
         <v>41</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
